--- a/artfynd/A 40224-2022.xlsx
+++ b/artfynd/A 40224-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95411943</v>
+        <v>95412287</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466289.1380198324</v>
+        <v>466232.2934523974</v>
       </c>
       <c r="R2" t="n">
-        <v>6718967.24081999</v>
+        <v>6718990.364524492</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95412454</v>
+        <v>95490370</v>
       </c>
       <c r="B3" t="n">
-        <v>90645</v>
+        <v>88921</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,30 +812,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>5741</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -847,10 +851,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466211.423252948</v>
+        <v>466248.1297193331</v>
       </c>
       <c r="R3" t="n">
-        <v>6718967.969250771</v>
+        <v>6719000.529304939</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -893,6 +897,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>En rätt stor fk.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,10 +929,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95412039</v>
+        <v>95530343</v>
       </c>
       <c r="B4" t="n">
-        <v>78503</v>
+        <v>89412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -932,41 +941,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6456</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466253.9308009573</v>
+        <v>466431.8443636021</v>
       </c>
       <c r="R4" t="n">
-        <v>6718989.670561598</v>
+        <v>6719183.954353156</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -993,7 +999,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1003,7 +1009,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1013,7 +1019,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På asp rikligt.</t>
+          <t>6 mindre fk.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,7 +1028,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1034,17 +1039,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95411807</v>
+        <v>95532467</v>
       </c>
       <c r="B5" t="n">
-        <v>90647</v>
+        <v>90645</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1057,37 +1062,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466292.4569580855</v>
+        <v>466381.9442682731</v>
       </c>
       <c r="R5" t="n">
-        <v>6718953.949716845</v>
+        <v>6719160.356861604</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1114,7 +1116,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1124,7 +1126,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1138,7 +1140,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1150,17 +1151,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95412632</v>
+        <v>95532442</v>
       </c>
       <c r="B6" t="n">
-        <v>77595</v>
+        <v>8377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1173,37 +1174,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6450</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466111.950201211</v>
+        <v>466445.6523817014</v>
       </c>
       <c r="R6" t="n">
-        <v>6718852.01760059</v>
+        <v>6719187.75429108</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1230,7 +1228,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1240,7 +1238,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1248,18 +1246,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På stor klippa.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1271,17 +1263,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95412287</v>
+        <v>95532469</v>
       </c>
       <c r="B7" t="n">
-        <v>56395</v>
+        <v>90645</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1294,42 +1286,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466232.2934523974</v>
+        <v>466444.6595579273</v>
       </c>
       <c r="R7" t="n">
-        <v>6718990.364524492</v>
+        <v>6719186.781381917</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1356,7 +1340,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1366,7 +1350,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1391,17 +1375,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95412601</v>
+        <v>95411943</v>
       </c>
       <c r="B8" t="n">
-        <v>77258</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1414,21 +1398,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1441,10 +1425,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466127.2471417623</v>
+        <v>466289.1380198324</v>
       </c>
       <c r="R8" t="n">
-        <v>6718909.335137485</v>
+        <v>6718967.24081999</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1487,11 +1471,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Bränd stubbe</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1519,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95412685</v>
+        <v>95412454</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>90645</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1535,25 +1514,33 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1562,10 +1549,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466106.5672396038</v>
+        <v>466211.423252948</v>
       </c>
       <c r="R9" t="n">
-        <v>6718855.015028773</v>
+        <v>6718967.969250771</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1608,11 +1595,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt på aspstam.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1640,10 +1622,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95412574</v>
+        <v>95412039</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>78503</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,25 +1634,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>6456</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1683,10 +1665,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466181.6253634302</v>
+        <v>466253.9308009573</v>
       </c>
       <c r="R10" t="n">
-        <v>6718937.799949669</v>
+        <v>6718989.670561598</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1733,7 +1715,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På bränd stubbe.</t>
+          <t>På asp rikligt.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1761,10 +1743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95412328</v>
+        <v>95411807</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>90647</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1773,39 +1755,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1813,10 +1786,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466209.060703111</v>
+        <v>466292.4569580855</v>
       </c>
       <c r="R11" t="n">
-        <v>6718978.304748794</v>
+        <v>6718953.949716845</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1886,10 +1859,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95411954</v>
+        <v>95412632</v>
       </c>
       <c r="B12" t="n">
-        <v>78503</v>
+        <v>77595</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1902,21 +1875,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>6450</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1929,10 +1902,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466289.1472149284</v>
+        <v>466111.950201211</v>
       </c>
       <c r="R12" t="n">
-        <v>6718968.222956545</v>
+        <v>6718852.01760059</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1979,7 +1952,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På asp</t>
+          <t>På stor klippa.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2007,10 +1980,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95411973</v>
+        <v>95412601</v>
       </c>
       <c r="B13" t="n">
-        <v>78503</v>
+        <v>77258</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,25 +1992,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2050,10 +2023,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466271.0723918921</v>
+        <v>466127.2471417623</v>
       </c>
       <c r="R13" t="n">
-        <v>6718981.65220491</v>
+        <v>6718909.335137485</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2100,7 +2073,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På asp</t>
+          <t>Bränd stubbe</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2128,10 +2101,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95490370</v>
+        <v>95412685</v>
       </c>
       <c r="B14" t="n">
-        <v>88921</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2140,37 +2113,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5741</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2179,10 +2144,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466248.1297193331</v>
+        <v>466106.5672396038</v>
       </c>
       <c r="R14" t="n">
-        <v>6719000.529304939</v>
+        <v>6718855.015028773</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2229,7 +2194,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>En rätt stor fk.</t>
+          <t>Rikligt på aspstam.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2257,10 +2222,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95530343</v>
+        <v>95412574</v>
       </c>
       <c r="B15" t="n">
-        <v>89412</v>
+        <v>78098</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2273,34 +2238,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5442</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466431.8443636021</v>
+        <v>466181.6253634302</v>
       </c>
       <c r="R15" t="n">
-        <v>6719183.954353156</v>
+        <v>6718937.799949669</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2327,7 +2295,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2337,7 +2305,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2347,7 +2315,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>6 mindre fk.</t>
+          <t>På bränd stubbe.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2356,6 +2324,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2367,17 +2336,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95532467</v>
+        <v>95412328</v>
       </c>
       <c r="B16" t="n">
-        <v>90645</v>
+        <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2386,38 +2355,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466381.9442682731</v>
+        <v>466209.060703111</v>
       </c>
       <c r="R16" t="n">
-        <v>6719160.356861604</v>
+        <v>6718978.304748794</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2444,7 +2425,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2454,7 +2435,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2468,6 +2449,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2479,17 +2461,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95532443</v>
+        <v>95411954</v>
       </c>
       <c r="B17" t="n">
-        <v>77258</v>
+        <v>78503</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2498,38 +2480,41 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6446</v>
+        <v>6456</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466350.3693649332</v>
+        <v>466289.1472149284</v>
       </c>
       <c r="R17" t="n">
-        <v>6718623.856133976</v>
+        <v>6718968.222956545</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2556,7 +2541,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2566,7 +2551,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2574,12 +2559,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På asp</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2591,17 +2582,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95532442</v>
+        <v>95411973</v>
       </c>
       <c r="B18" t="n">
-        <v>8377</v>
+        <v>78503</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2614,34 +2605,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>106545</v>
+        <v>6456</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466445.6523817014</v>
+        <v>466271.0723918921</v>
       </c>
       <c r="R18" t="n">
-        <v>6719187.75429108</v>
+        <v>6718981.65220491</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2668,7 +2662,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2678,7 +2672,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2686,12 +2680,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>På asp</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2703,17 +2703,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95532461</v>
+        <v>95532447</v>
       </c>
       <c r="B19" t="n">
-        <v>77595</v>
+        <v>77259</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2722,25 +2722,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6450</v>
+        <v>228912</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2750,10 +2750,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466391.4899756311</v>
+        <v>466364.122417165</v>
       </c>
       <c r="R19" t="n">
-        <v>6718707.459140752</v>
+        <v>6718726.869327344</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2815,17 +2815,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95530332</v>
+        <v>95532453</v>
       </c>
       <c r="B20" t="n">
-        <v>90653</v>
+        <v>78098</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2834,25 +2834,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466394.3680528478</v>
+        <v>466360.872829864</v>
       </c>
       <c r="R20" t="n">
-        <v>6718699.573929941</v>
+        <v>6718694.975191399</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>95530331</v>
+        <v>95890385</v>
       </c>
       <c r="B21" t="n">
-        <v>90653</v>
+        <v>77259</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,41 +2946,51 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>cm²</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466356.3319625578</v>
+        <v>466189.8397094292</v>
       </c>
       <c r="R21" t="n">
-        <v>6718630.185470104</v>
+        <v>6718764.845949437</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3004,27 +3014,22 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>5 fk.</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3039,22 +3044,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>95532469</v>
+        <v>95890871</v>
       </c>
       <c r="B22" t="n">
-        <v>90645</v>
+        <v>96334</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3063,41 +3068,43 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466444.6595579273</v>
+        <v>466220.5305843108</v>
       </c>
       <c r="R22" t="n">
-        <v>6719186.781381917</v>
+        <v>6718785.185701799</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3121,22 +3128,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3151,22 +3158,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95530325</v>
+        <v>95891050</v>
       </c>
       <c r="B23" t="n">
-        <v>90665</v>
+        <v>77259</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3175,41 +3182,51 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466394.3680528478</v>
+        <v>466234.1946973287</v>
       </c>
       <c r="R23" t="n">
-        <v>6718699.573929941</v>
+        <v>6718878.372242305</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3233,22 +3250,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3263,22 +3280,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>95532447</v>
+        <v>95889866</v>
       </c>
       <c r="B24" t="n">
-        <v>77259</v>
+        <v>77532</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3287,41 +3304,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>6434</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466364.122417165</v>
+        <v>466165.3114927084</v>
       </c>
       <c r="R24" t="n">
-        <v>6718726.869327344</v>
+        <v>6718824.503692268</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3345,22 +3363,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3375,22 +3393,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>95532453</v>
+        <v>95890867</v>
       </c>
       <c r="B25" t="n">
-        <v>78098</v>
+        <v>77259</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3403,37 +3421,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466360.872829864</v>
+        <v>466220.5305843108</v>
       </c>
       <c r="R25" t="n">
-        <v>6718694.975191399</v>
+        <v>6718785.185701799</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3457,22 +3476,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3487,22 +3506,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>95532450</v>
+        <v>95890477</v>
       </c>
       <c r="B26" t="n">
-        <v>77259</v>
+        <v>78503</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3511,41 +3530,51 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>6456</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466350.3693649332</v>
+        <v>466185.8307779917</v>
       </c>
       <c r="R26" t="n">
-        <v>6718623.856133976</v>
+        <v>6718757.025356704</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3569,22 +3598,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3599,19 +3628,19 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>95890385</v>
+        <v>95891023</v>
       </c>
       <c r="B27" t="n">
         <v>77259</v>
@@ -3646,12 +3675,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>cm²</t>
+          <t>dm²</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -3661,13 +3690,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466189.8397094292</v>
+        <v>466231.3447493512</v>
       </c>
       <c r="R27" t="n">
-        <v>6718764.845949437</v>
+        <v>6718889.203672025</v>
       </c>
       <c r="S27" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3696,7 +3725,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3706,7 +3735,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Rikligt. Sex brandljudsstubbar inom 25 m.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3733,10 +3767,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>95890871</v>
+        <v>95891039</v>
       </c>
       <c r="B28" t="n">
-        <v>96334</v>
+        <v>77258</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3745,43 +3779,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6446</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466220.5305843108</v>
+        <v>466234.1946973287</v>
       </c>
       <c r="R28" t="n">
-        <v>6718785.185701799</v>
+        <v>6718878.372242305</v>
       </c>
       <c r="S28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3810,7 +3843,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3820,7 +3853,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3847,10 +3880,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>95891050</v>
+        <v>95890834</v>
       </c>
       <c r="B29" t="n">
-        <v>77259</v>
+        <v>77258</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3863,33 +3896,24 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3897,13 +3921,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466234.1946973287</v>
+        <v>466220.5305843108</v>
       </c>
       <c r="R29" t="n">
-        <v>6718878.372242305</v>
+        <v>6718785.185701799</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3932,7 +3956,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3942,7 +3966,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3969,10 +3993,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>95889866</v>
+        <v>95890045</v>
       </c>
       <c r="B30" t="n">
-        <v>77532</v>
+        <v>96334</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3981,39 +4005,53 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6434</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466165.3114927084</v>
+        <v>466184.0999787676</v>
       </c>
       <c r="R30" t="n">
-        <v>6718824.503692268</v>
+        <v>6718834.640939083</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4045,7 +4083,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4055,7 +4093,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Inom 3 m radie.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4082,7 +4125,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>95890867</v>
+        <v>95890586</v>
       </c>
       <c r="B31" t="n">
         <v>77259</v>
@@ -4123,13 +4166,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466220.5305843108</v>
+        <v>466230.00456033</v>
       </c>
       <c r="R31" t="n">
-        <v>6718785.185701799</v>
+        <v>6718746.296863541</v>
       </c>
       <c r="S31" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4158,7 +4201,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4168,7 +4211,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Brandljudsstubbe på skvattramtallmossen nedan sluttningen.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4195,10 +4243,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95890477</v>
+        <v>95890931</v>
       </c>
       <c r="B32" t="n">
-        <v>78503</v>
+        <v>96334</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4207,25 +4255,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6456</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4235,23 +4283,28 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466185.8307779917</v>
+        <v>466220.0167114146</v>
       </c>
       <c r="R32" t="n">
-        <v>6718757.025356704</v>
+        <v>6718835.286081408</v>
       </c>
       <c r="S32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4280,7 +4333,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4290,7 +4343,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4317,7 +4370,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>95891023</v>
+        <v>95891081</v>
       </c>
       <c r="B33" t="n">
         <v>77259</v>
@@ -4352,7 +4405,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4367,13 +4420,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466231.3447493512</v>
+        <v>466244.2302107442</v>
       </c>
       <c r="R33" t="n">
-        <v>6718889.203672025</v>
+        <v>6718899.396403954</v>
       </c>
       <c r="S33" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4402,7 +4455,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:09</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4412,12 +4465,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>19:55</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Rikligt. Sex brandljudsstubbar inom 25 m.</t>
+          <t>20:09</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4444,10 +4492,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95891039</v>
+        <v>95890989</v>
       </c>
       <c r="B34" t="n">
-        <v>77258</v>
+        <v>90653</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4456,39 +4504,49 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6446</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466234.1946973287</v>
+        <v>466227.3728912233</v>
       </c>
       <c r="R34" t="n">
-        <v>6718878.372242305</v>
+        <v>6718885.311943273</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4520,7 +4578,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4530,7 +4588,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4539,6 +4597,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4557,7 +4616,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>95890834</v>
+        <v>95532443</v>
       </c>
       <c r="B35" t="n">
         <v>77258</v>
@@ -4591,20 +4650,19 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466220.5305843108</v>
+        <v>466350.3693649332</v>
       </c>
       <c r="R35" t="n">
-        <v>6718785.185701799</v>
+        <v>6718623.856133976</v>
       </c>
       <c r="S35" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4628,22 +4686,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4658,22 +4716,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>95890045</v>
+        <v>95532461</v>
       </c>
       <c r="B36" t="n">
-        <v>96334</v>
+        <v>77595</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4682,56 +4740,41 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>6450</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>(Ach.) Parrique</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466184.0999787676</v>
+        <v>466391.4899756311</v>
       </c>
       <c r="R36" t="n">
-        <v>6718834.640939083</v>
+        <v>6718707.459140752</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4755,27 +4798,22 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>18:54</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Inom 3 m radie.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4790,22 +4828,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>95890586</v>
+        <v>95530332</v>
       </c>
       <c r="B37" t="n">
-        <v>77259</v>
+        <v>90653</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4814,42 +4852,41 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466230.00456033</v>
+        <v>466394.3680528478</v>
       </c>
       <c r="R37" t="n">
-        <v>6718746.296863541</v>
+        <v>6718699.573929941</v>
       </c>
       <c r="S37" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4873,27 +4910,22 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Brandljudsstubbe på skvattramtallmossen nedan sluttningen.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4908,22 +4940,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>95890931</v>
+        <v>95530331</v>
       </c>
       <c r="B38" t="n">
-        <v>96334</v>
+        <v>90653</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4932,56 +4964,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466220.0167114146</v>
+        <v>466356.3319625578</v>
       </c>
       <c r="R38" t="n">
-        <v>6718835.286081408</v>
+        <v>6718630.185470104</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5005,22 +5022,27 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>5 fk.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5035,22 +5057,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>95891081</v>
+        <v>95530325</v>
       </c>
       <c r="B39" t="n">
-        <v>77259</v>
+        <v>90665</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5059,51 +5081,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>228912</v>
+        <v>4366</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466244.2302107442</v>
+        <v>466394.3680528478</v>
       </c>
       <c r="R39" t="n">
-        <v>6718899.396403954</v>
+        <v>6718699.573929941</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5127,22 +5139,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>20:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>20:09</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5157,22 +5169,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>95890989</v>
+        <v>95532450</v>
       </c>
       <c r="B40" t="n">
-        <v>90653</v>
+        <v>77259</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5181,52 +5193,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466227.3728912233</v>
+        <v>466350.3693649332</v>
       </c>
       <c r="R40" t="n">
-        <v>6718885.311943273</v>
+        <v>6718623.856133976</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5250,22 +5251,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5274,19 +5275,18 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>

--- a/artfynd/A 40224-2022.xlsx
+++ b/artfynd/A 40224-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95412287</v>
+        <v>95411943</v>
       </c>
       <c r="B2" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,31 +696,26 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466232.2934523974</v>
+        <v>466289.1380198324</v>
       </c>
       <c r="R2" t="n">
-        <v>6718990.364524492</v>
+        <v>6718967.24081999</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -782,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>95490370</v>
+        <v>95412454</v>
       </c>
       <c r="B3" t="n">
-        <v>88921</v>
+        <v>90645</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,30 +808,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5741</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -851,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466248.1297193331</v>
+        <v>466211.423252948</v>
       </c>
       <c r="R3" t="n">
-        <v>6719000.529304939</v>
+        <v>6718967.969250771</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -897,11 +893,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>En rätt stor fk.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -929,10 +920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95530343</v>
+        <v>95412039</v>
       </c>
       <c r="B4" t="n">
-        <v>89412</v>
+        <v>78503</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -941,38 +932,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>6456</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466431.8443636021</v>
+        <v>466253.9308009573</v>
       </c>
       <c r="R4" t="n">
-        <v>6719183.954353156</v>
+        <v>6718989.670561598</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -999,7 +993,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1009,7 +1003,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1019,7 +1013,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>6 mindre fk.</t>
+          <t>På asp rikligt.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,6 +1022,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1039,17 +1034,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95532467</v>
+        <v>95411807</v>
       </c>
       <c r="B5" t="n">
-        <v>90645</v>
+        <v>90647</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1062,34 +1057,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466381.9442682731</v>
+        <v>466292.4569580855</v>
       </c>
       <c r="R5" t="n">
-        <v>6719160.356861604</v>
+        <v>6718953.949716845</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1116,7 +1114,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1126,7 +1124,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1140,6 +1138,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1151,17 +1150,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95532442</v>
+        <v>95412632</v>
       </c>
       <c r="B6" t="n">
-        <v>8377</v>
+        <v>77595</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,34 +1173,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>6450</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466445.6523817014</v>
+        <v>466111.950201211</v>
       </c>
       <c r="R6" t="n">
-        <v>6719187.75429108</v>
+        <v>6718852.01760059</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1228,7 +1230,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1238,7 +1240,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1246,12 +1248,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På stor klippa.</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1263,17 +1271,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95532469</v>
+        <v>95412287</v>
       </c>
       <c r="B7" t="n">
-        <v>90645</v>
+        <v>56395</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1286,34 +1294,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466444.6595579273</v>
+        <v>466232.2934523974</v>
       </c>
       <c r="R7" t="n">
-        <v>6719186.781381917</v>
+        <v>6718990.364524492</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1340,7 +1356,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1350,7 +1366,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1375,17 +1391,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>95411943</v>
+        <v>95412601</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,21 +1414,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1425,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466289.1380198324</v>
+        <v>466127.2471417623</v>
       </c>
       <c r="R8" t="n">
-        <v>6718967.24081999</v>
+        <v>6718909.335137485</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1471,6 +1487,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Bränd stubbe</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1498,10 +1519,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>95412454</v>
+        <v>95412685</v>
       </c>
       <c r="B9" t="n">
-        <v>90645</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1514,33 +1535,25 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
@@ -1549,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466211.423252948</v>
+        <v>466106.5672396038</v>
       </c>
       <c r="R9" t="n">
-        <v>6718967.969250771</v>
+        <v>6718855.015028773</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1595,6 +1608,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt på aspstam.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1622,10 +1640,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>95412039</v>
+        <v>95412574</v>
       </c>
       <c r="B10" t="n">
-        <v>78503</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1634,25 +1652,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6456</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1665,10 +1683,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466253.9308009573</v>
+        <v>466181.6253634302</v>
       </c>
       <c r="R10" t="n">
-        <v>6718989.670561598</v>
+        <v>6718937.799949669</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1715,7 +1733,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På asp rikligt.</t>
+          <t>På bränd stubbe.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1743,10 +1761,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>95411807</v>
+        <v>95412328</v>
       </c>
       <c r="B11" t="n">
-        <v>90647</v>
+        <v>96334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,30 +1773,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1786,10 +1813,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466292.4569580855</v>
+        <v>466209.060703111</v>
       </c>
       <c r="R11" t="n">
-        <v>6718953.949716845</v>
+        <v>6718978.304748794</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1859,10 +1886,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>95412632</v>
+        <v>95411954</v>
       </c>
       <c r="B12" t="n">
-        <v>77595</v>
+        <v>78503</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1875,21 +1902,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6450</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1902,10 +1929,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466111.950201211</v>
+        <v>466289.1472149284</v>
       </c>
       <c r="R12" t="n">
-        <v>6718852.01760059</v>
+        <v>6718968.222956545</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1952,7 +1979,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På stor klippa.</t>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1980,10 +2007,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>95412601</v>
+        <v>95411973</v>
       </c>
       <c r="B13" t="n">
-        <v>77258</v>
+        <v>78503</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1992,25 +2019,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6456</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2023,10 +2050,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466127.2471417623</v>
+        <v>466271.0723918921</v>
       </c>
       <c r="R13" t="n">
-        <v>6718909.335137485</v>
+        <v>6718981.65220491</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2073,7 +2100,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Bränd stubbe</t>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2101,10 +2128,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>95412685</v>
+        <v>95490370</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>88921</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2113,29 +2140,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>5741</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Schaeff.) R. H. Petersen</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2144,10 +2179,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466106.5672396038</v>
+        <v>466248.1297193331</v>
       </c>
       <c r="R14" t="n">
-        <v>6718855.015028773</v>
+        <v>6719000.529304939</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2194,7 +2229,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Rikligt på aspstam.</t>
+          <t>En rätt stor fk.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2222,10 +2257,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>95412574</v>
+        <v>95530343</v>
       </c>
       <c r="B15" t="n">
-        <v>78098</v>
+        <v>89412</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2238,37 +2273,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>5442</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466181.6253634302</v>
+        <v>466431.8443636021</v>
       </c>
       <c r="R15" t="n">
-        <v>6718937.799949669</v>
+        <v>6719183.954353156</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2295,7 +2327,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2305,7 +2337,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2315,7 +2347,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På bränd stubbe.</t>
+          <t>6 mindre fk.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2324,7 +2356,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2336,17 +2367,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>95412328</v>
+        <v>95532467</v>
       </c>
       <c r="B16" t="n">
-        <v>96334</v>
+        <v>90645</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2355,50 +2386,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466209.060703111</v>
+        <v>466381.9442682731</v>
       </c>
       <c r="R16" t="n">
-        <v>6718978.304748794</v>
+        <v>6719160.356861604</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2425,7 +2444,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2435,7 +2454,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2449,7 +2468,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2461,17 +2479,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>95411954</v>
+        <v>95532443</v>
       </c>
       <c r="B17" t="n">
-        <v>78503</v>
+        <v>77258</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2480,41 +2498,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6456</v>
+        <v>6446</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466289.1472149284</v>
+        <v>466350.3693649332</v>
       </c>
       <c r="R17" t="n">
-        <v>6718968.222956545</v>
+        <v>6718623.856133976</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2541,7 +2556,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2551,7 +2566,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2559,18 +2574,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På asp</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2582,17 +2591,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>95411973</v>
+        <v>95532442</v>
       </c>
       <c r="B18" t="n">
-        <v>78503</v>
+        <v>8377</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2605,37 +2614,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6456</v>
+        <v>106545</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466271.0723918921</v>
+        <v>466445.6523817014</v>
       </c>
       <c r="R18" t="n">
-        <v>6718981.65220491</v>
+        <v>6719187.75429108</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2662,7 +2668,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2672,7 +2678,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2680,18 +2686,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>På asp</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2703,17 +2703,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>95532447</v>
+        <v>95532461</v>
       </c>
       <c r="B19" t="n">
-        <v>77259</v>
+        <v>77595</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2722,25 +2722,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>6450</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2750,10 +2750,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466364.122417165</v>
+        <v>466391.4899756311</v>
       </c>
       <c r="R19" t="n">
-        <v>6718726.869327344</v>
+        <v>6718707.459140752</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2815,17 +2815,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>95532453</v>
+        <v>95530332</v>
       </c>
       <c r="B20" t="n">
-        <v>78098</v>
+        <v>90653</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2834,25 +2834,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466360.872829864</v>
+        <v>466394.3680528478</v>
       </c>
       <c r="R20" t="n">
-        <v>6718694.975191399</v>
+        <v>6718699.573929941</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>95890385</v>
+        <v>95530331</v>
       </c>
       <c r="B21" t="n">
-        <v>77259</v>
+        <v>90653</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2946,51 +2946,41 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>cm²</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466189.8397094292</v>
+        <v>466356.3319625578</v>
       </c>
       <c r="R21" t="n">
-        <v>6718764.845949437</v>
+        <v>6718630.185470104</v>
       </c>
       <c r="S21" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3014,22 +3004,27 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>5 fk.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3044,22 +3039,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>95890871</v>
+        <v>95532469</v>
       </c>
       <c r="B22" t="n">
-        <v>96334</v>
+        <v>90645</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3068,43 +3063,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466220.5305843108</v>
+        <v>466444.6595579273</v>
       </c>
       <c r="R22" t="n">
-        <v>6718785.185701799</v>
+        <v>6719186.781381917</v>
       </c>
       <c r="S22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3128,22 +3121,22 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3158,22 +3151,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>95891050</v>
+        <v>95530325</v>
       </c>
       <c r="B23" t="n">
-        <v>77259</v>
+        <v>90665</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3182,51 +3175,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>4366</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466234.1946973287</v>
+        <v>466394.3680528478</v>
       </c>
       <c r="R23" t="n">
-        <v>6718878.372242305</v>
+        <v>6718699.573929941</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3250,22 +3233,22 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3280,22 +3263,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>95889866</v>
+        <v>95532447</v>
       </c>
       <c r="B24" t="n">
-        <v>77532</v>
+        <v>77259</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3304,42 +3287,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6434</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466165.3114927084</v>
+        <v>466364.122417165</v>
       </c>
       <c r="R24" t="n">
-        <v>6718824.503692268</v>
+        <v>6718726.869327344</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3363,22 +3345,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3393,22 +3375,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>95890867</v>
+        <v>95532453</v>
       </c>
       <c r="B25" t="n">
-        <v>77259</v>
+        <v>78098</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3421,38 +3403,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466220.5305843108</v>
+        <v>466360.872829864</v>
       </c>
       <c r="R25" t="n">
-        <v>6718785.185701799</v>
+        <v>6718694.975191399</v>
       </c>
       <c r="S25" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3476,22 +3457,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3506,22 +3487,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>95890477</v>
+        <v>95532450</v>
       </c>
       <c r="B26" t="n">
-        <v>78503</v>
+        <v>77259</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3530,51 +3511,41 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6456</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Skramsen, NO, Dlr</t>
+          <t>Skramsen NO, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466185.8307779917</v>
+        <v>466350.3693649332</v>
       </c>
       <c r="R26" t="n">
-        <v>6718757.025356704</v>
+        <v>6718623.856133976</v>
       </c>
       <c r="S26" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3598,22 +3569,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-09-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>19:20</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3628,19 +3599,19 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Anders Lindholm</t>
+          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>95891023</v>
+        <v>95890385</v>
       </c>
       <c r="B27" t="n">
         <v>77259</v>
@@ -3675,12 +3646,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>dm²</t>
+          <t>cm²</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -3690,13 +3661,13 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466231.3447493512</v>
+        <v>466189.8397094292</v>
       </c>
       <c r="R27" t="n">
-        <v>6718889.203672025</v>
+        <v>6718764.845949437</v>
       </c>
       <c r="S27" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3725,7 +3696,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3735,12 +3706,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>19:55</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Rikligt. Sex brandljudsstubbar inom 25 m.</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3767,10 +3733,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>95891039</v>
+        <v>95890871</v>
       </c>
       <c r="B28" t="n">
-        <v>77258</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3779,42 +3745,43 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466234.1946973287</v>
+        <v>466220.5305843108</v>
       </c>
       <c r="R28" t="n">
-        <v>6718878.372242305</v>
+        <v>6718785.185701799</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3843,7 +3810,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3853,7 +3820,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>20:05</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3880,10 +3847,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>95890834</v>
+        <v>95891050</v>
       </c>
       <c r="B29" t="n">
-        <v>77258</v>
+        <v>77259</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3896,24 +3863,33 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3921,13 +3897,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466220.5305843108</v>
+        <v>466234.1946973287</v>
       </c>
       <c r="R29" t="n">
-        <v>6718785.185701799</v>
+        <v>6718878.372242305</v>
       </c>
       <c r="S29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3956,7 +3932,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3966,7 +3942,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3993,10 +3969,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>95890045</v>
+        <v>95889866</v>
       </c>
       <c r="B30" t="n">
-        <v>96334</v>
+        <v>77532</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4005,53 +3981,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>6434</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466184.0999787676</v>
+        <v>466165.3114927084</v>
       </c>
       <c r="R30" t="n">
-        <v>6718834.640939083</v>
+        <v>6718824.503692268</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4083,7 +4045,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>18:54</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4093,12 +4055,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>18:54</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Inom 3 m radie.</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4125,7 +4082,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>95890586</v>
+        <v>95890867</v>
       </c>
       <c r="B31" t="n">
         <v>77259</v>
@@ -4166,13 +4123,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>466230.00456033</v>
+        <v>466220.5305843108</v>
       </c>
       <c r="R31" t="n">
-        <v>6718746.296863541</v>
+        <v>6718785.185701799</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4201,7 +4158,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4211,12 +4168,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Brandljudsstubbe på skvattramtallmossen nedan sluttningen.</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4243,10 +4195,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>95890931</v>
+        <v>95890477</v>
       </c>
       <c r="B32" t="n">
-        <v>96334</v>
+        <v>78503</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4255,25 +4207,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>6456</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4283,28 +4235,23 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr"/>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>466220.0167114146</v>
+        <v>466185.8307779917</v>
       </c>
       <c r="R32" t="n">
-        <v>6718835.286081408</v>
+        <v>6718757.025356704</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4333,7 +4280,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4343,7 +4290,7 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>19:20</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4370,7 +4317,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>95891081</v>
+        <v>95891023</v>
       </c>
       <c r="B33" t="n">
         <v>77259</v>
@@ -4405,7 +4352,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -4420,13 +4367,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>466244.2302107442</v>
+        <v>466231.3447493512</v>
       </c>
       <c r="R33" t="n">
-        <v>6718899.396403954</v>
+        <v>6718889.203672025</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4455,7 +4402,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>20:09</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4465,7 +4412,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>20:09</t>
+          <t>19:55</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikligt. Sex brandljudsstubbar inom 25 m.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4492,10 +4444,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>95890989</v>
+        <v>95891039</v>
       </c>
       <c r="B34" t="n">
-        <v>90653</v>
+        <v>77258</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4504,49 +4456,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>466227.3728912233</v>
+        <v>466234.1946973287</v>
       </c>
       <c r="R34" t="n">
-        <v>6718885.311943273</v>
+        <v>6718878.372242305</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4578,7 +4520,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4588,7 +4530,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>19:55</t>
+          <t>20:05</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4597,7 +4539,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4616,7 +4557,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>95532443</v>
+        <v>95890834</v>
       </c>
       <c r="B35" t="n">
         <v>77258</v>
@@ -4650,19 +4591,20 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>466350.3693649332</v>
+        <v>466220.5305843108</v>
       </c>
       <c r="R35" t="n">
-        <v>6718623.856133976</v>
+        <v>6718785.185701799</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4686,22 +4628,22 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4716,22 +4658,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>95532461</v>
+        <v>95890045</v>
       </c>
       <c r="B36" t="n">
-        <v>77595</v>
+        <v>96334</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4740,41 +4682,56 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6450</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>466391.4899756311</v>
+        <v>466184.0999787676</v>
       </c>
       <c r="R36" t="n">
-        <v>6718707.459140752</v>
+        <v>6718834.640939083</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4798,22 +4755,27 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:54</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:54</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Inom 3 m radie.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4828,22 +4790,22 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>95530332</v>
+        <v>95890586</v>
       </c>
       <c r="B37" t="n">
-        <v>90653</v>
+        <v>77259</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4852,41 +4814,42 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>466394.3680528478</v>
+        <v>466230.00456033</v>
       </c>
       <c r="R37" t="n">
-        <v>6718699.573929941</v>
+        <v>6718746.296863541</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4910,22 +4873,27 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Brandljudsstubbe på skvattramtallmossen nedan sluttningen.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4940,22 +4908,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>95530331</v>
+        <v>95890931</v>
       </c>
       <c r="B38" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4964,41 +4932,56 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>466356.3319625578</v>
+        <v>466220.0167114146</v>
       </c>
       <c r="R38" t="n">
-        <v>6718630.185470104</v>
+        <v>6718835.286081408</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -5022,27 +5005,22 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>5 fk.</t>
+          <t>19:50</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5057,22 +5035,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>95530325</v>
+        <v>95891081</v>
       </c>
       <c r="B39" t="n">
-        <v>90665</v>
+        <v>77259</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5081,41 +5059,51 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>466394.3680528478</v>
+        <v>466244.2302107442</v>
       </c>
       <c r="R39" t="n">
-        <v>6718699.573929941</v>
+        <v>6718899.396403954</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5139,22 +5127,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:09</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>20:09</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5169,22 +5157,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>95532450</v>
+        <v>95890989</v>
       </c>
       <c r="B40" t="n">
-        <v>77259</v>
+        <v>90653</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5193,41 +5181,52 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Skramsen NO, Dlr</t>
+          <t>Skramsen, NO, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>466350.3693649332</v>
+        <v>466227.3728912233</v>
       </c>
       <c r="R40" t="n">
-        <v>6718623.856133976</v>
+        <v>6718885.311943273</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5251,22 +5250,22 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2021-08-15</t>
+          <t>2021-09-03</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>19:55</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5275,18 +5274,19 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Lars-Erik Nilsson, Jonas Pehrs</t>
+          <t>Anders Lindholm</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
